--- a/biology/Zoologie/Hakaria_simonyi/Hakaria_simonyi.xlsx
+++ b/biology/Zoologie/Hakaria_simonyi/Hakaria_simonyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hakaria simonyi, unique représentant du genre Hakaria, est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hakaria simonyi, unique représentant du genre Hakaria, est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Socotra en mer d'Arabie au large du Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Socotra en mer d'Arabie au large du Yémen.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée Parachalcides socotranus, nom donné par Boulenger, le 18 mai 1899[2]. Il est apparu que Steindachner avait décrit cette espèce le premier, entre le 5 et le 15 mai 1899, cette première description a ainsi pris le pas sur l'autre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée Parachalcides socotranus, nom donné par Boulenger, le 18 mai 1899. Il est apparu que Steindachner avait décrit cette espèce le premier, entre le 5 et le 15 mai 1899, cette première description a ainsi pris le pas sur l'autre.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste austro-hongrois Oszkar Simonyi[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste austro-hongrois Oszkar Simonyi.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1899  : Descriptions of the new species of reptiles. Bulletin of the Liverpool Museum, vol. 2, no 1, p. 4-7 (texte intégral).
 Steindachner, 1899 : Berichtet über eine von Herrn Prof. O. Simony während der südarabischen Expedition in Sokotra entdeckte neue *Sespina*-Art, die zugleich einer besonderen Subgattung (*Hakaria*) angehört, und charakterisiert dieselbe. Anzeiger der Kaiserlichen Akademie der Wissenschaften, Mathematisch-Naturwissenschaftliche Classe, vol. 36, p. 161-162 (texte intégral).</t>
